--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -518,7 +517,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -527,7 +525,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -536,7 +533,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -545,7 +541,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -560,7 +555,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -575,7 +569,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -590,7 +583,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -599,7 +591,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -610,7 +601,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -625,7 +615,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1141,7 +1130,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1377,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="13">
         <v>10</v>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1366,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="13">
         <v>10</v>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>skillName</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>0\</t>
+  </si>
+  <si>
+    <t>coolTime</t>
   </si>
 </sst>
 </file>
@@ -1127,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1153,7 +1156,7 @@
     <col min="16" max="16384" style="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1190,8 +1193,11 @@
       <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="M1" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1228,8 +1234,11 @@
       <c r="L2" s="12">
         <v>0</v>
       </c>
+      <c r="M2" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1266,8 +1275,11 @@
       <c r="L3" s="12">
         <v>300</v>
       </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -1304,8 +1316,11 @@
       <c r="L4" s="12">
         <v>0</v>
       </c>
+      <c r="M4" s="11">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1342,8 +1357,11 @@
       <c r="L5" s="12">
         <v>0</v>
       </c>
+      <c r="M5" s="11">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -1380,8 +1398,11 @@
       <c r="L6" s="12">
         <v>0</v>
       </c>
+      <c r="M6" s="11">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -1418,8 +1439,11 @@
       <c r="L7" s="12">
         <v>0</v>
       </c>
+      <c r="M7" s="11">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -1456,8 +1480,11 @@
       <c r="L8" s="12">
         <v>0</v>
       </c>
+      <c r="M8" s="11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1494,8 +1521,11 @@
       <c r="L9" s="12">
         <v>0</v>
       </c>
+      <c r="M9" s="11">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1562,11 @@
       <c r="L10" s="12">
         <v>0</v>
       </c>
+      <c r="M10" s="11">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1570,8 +1603,11 @@
       <c r="L11" s="12">
         <v>0</v>
       </c>
+      <c r="M11" s="11">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1608,8 +1644,11 @@
       <c r="L12" s="12">
         <v>0</v>
       </c>
+      <c r="M12" s="11">
+        <v>0.099999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -1646,8 +1685,11 @@
       <c r="L13" s="12">
         <v>0</v>
       </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -1684,8 +1726,11 @@
       <c r="L14" s="12">
         <v>0</v>
       </c>
+      <c r="M14" s="11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1722,8 +1767,11 @@
       <c r="L15" s="12">
         <v>0</v>
       </c>
+      <c r="M15" s="11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1760,8 +1808,11 @@
       <c r="L16" s="12">
         <v>0</v>
       </c>
+      <c r="M16" s="11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
@@ -1798,8 +1849,11 @@
       <c r="L17" s="12">
         <v>0</v>
       </c>
+      <c r="M17" s="11">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1835,6 +1889,9 @@
       </c>
       <c r="L18" s="12">
         <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>skillName</t>
   </si>
@@ -148,6 +148,99 @@
   </si>
   <si>
     <t>coolTime</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>블래스</t>
+  </si>
+  <si>
+    <t>{"1","2","3"}</t>
+  </si>
+  <si>
+    <t>buffType</t>
+  </si>
+  <si>
+    <t>{"a": 1, "b": [2, 3, 4]}</t>
+  </si>
+  <si>
+    <t>{"a": 1, "b": [2]}</t>
+  </si>
+  <si>
+    <t>buffValue</t>
+  </si>
+  <si>
+    <t>buffTypeOne</t>
+  </si>
+  <si>
+    <t>buffValueOne</t>
+  </si>
+  <si>
+    <t>public enum BasicStatTypes</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Str,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AGI,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Vit,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Int,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Dex,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Luk,</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>buffTypeTwo</t>
+  </si>
+  <si>
+    <t>buffTypeThree</t>
+  </si>
+  <si>
+    <t>buffValueTwo</t>
+  </si>
+  <si>
+    <t>buffValueThree</t>
+  </si>
+  <si>
+    <t>BasicStatTypes.Str</t>
+  </si>
+  <si>
+    <t>BasicStatTypes.AGI</t>
+  </si>
+  <si>
+    <t>BasicStatTypes.Vit</t>
+  </si>
+  <si>
+    <t>BasicStatTypes.Dex</t>
+  </si>
+  <si>
+    <t>BasicStatTypes.Luk</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Luk</t>
+  </si>
+  <si>
+    <t>BasicStatTypesStr</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="C1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1151,12 +1244,16 @@
     <col min="11" max="11" style="13" width="10.25500011" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" style="12" width="12.50500011" customWidth="1" outlineLevel="0"/>
     <col min="13" max="13" style="11" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" style="11" width="10.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="15" style="11" width="12.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="16" max="16384" style="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="11" width="19.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" style="11" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" style="11" width="18.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" style="11" width="12.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="18" style="11" width="18.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="19" style="11" width="14.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="20" max="16384" style="11" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:19">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1293,26 @@
       <c r="M1" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="N1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:19">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1237,8 +1352,26 @@
       <c r="M2" s="11">
         <v>0</v>
       </c>
+      <c r="N2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:19">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1278,8 +1411,26 @@
       <c r="M3" s="11">
         <v>1</v>
       </c>
+      <c r="N3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
@@ -1319,8 +1470,26 @@
       <c r="M4" s="11">
         <v>0.9</v>
       </c>
+      <c r="N4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
@@ -1360,8 +1529,26 @@
       <c r="M5" s="11">
         <v>0.8</v>
       </c>
+      <c r="N5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
@@ -1401,8 +1588,26 @@
       <c r="M6" s="11">
         <v>0.7</v>
       </c>
+      <c r="N6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
@@ -1442,8 +1647,26 @@
       <c r="M7" s="11">
         <v>0.6</v>
       </c>
+      <c r="N7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -1483,8 +1706,26 @@
       <c r="M8" s="11">
         <v>0.5</v>
       </c>
+      <c r="N8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1524,8 +1765,26 @@
       <c r="M9" s="11">
         <v>0.4</v>
       </c>
+      <c r="N9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
@@ -1565,8 +1824,26 @@
       <c r="M10" s="11">
         <v>0.3</v>
       </c>
+      <c r="N10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1606,8 +1883,26 @@
       <c r="M11" s="11">
         <v>0.2</v>
       </c>
+      <c r="N11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1647,8 +1942,26 @@
       <c r="M12" s="11">
         <v>0.099999999999998</v>
       </c>
+      <c r="N12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
@@ -1688,8 +2001,26 @@
       <c r="M13" s="11">
         <v>0</v>
       </c>
+      <c r="N13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:19">
       <c r="A14" s="10" t="s">
         <v>37</v>
       </c>
@@ -1729,8 +2060,26 @@
       <c r="M14" s="11">
         <v>0.5</v>
       </c>
+      <c r="N14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:19">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
@@ -1770,8 +2119,26 @@
       <c r="M15" s="11">
         <v>0.5</v>
       </c>
+      <c r="N15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:19">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1811,8 +2178,26 @@
       <c r="M16" s="11">
         <v>0.5</v>
       </c>
+      <c r="N16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:19">
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
@@ -1852,8 +2237,26 @@
       <c r="M17" s="11">
         <v>0.5</v>
       </c>
+      <c r="N17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:19">
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
@@ -1892,34 +2295,347 @@
       </c>
       <c r="M18" s="11">
         <v>0.5</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>10</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12">
+        <v>300</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="11">
+        <v>2</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>2</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>20</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>300</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="11">
+        <v>4</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>4</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>6</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>30</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>300</v>
+      </c>
+      <c r="M21" s="11">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="11">
+        <v>6</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>6</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>40</v>
+      </c>
+      <c r="J22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="12">
+        <v>300</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="11">
+        <v>8</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>8</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>50</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="12">
+        <v>300</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="11">
+        <v>10</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>10</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A14 A19:A1048576 B1:B4 B14 B19:B1048576 A5 B5 A6:A7 A8:A9 A10:A11 A12:A13 B6:B7 B8:B9 B10:B11 B12:B13 A15 B15 A16:A17 A18 B16:B17 B18">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A14 A19 A24:A1048576 B1:B4 B14 B19 B24:B1048576 A5 B5 A6:A7 A8:A9 A10:A11 A12:A13 B6:B7 B8:B9 B10:B11 B12:B13 A15 B15 A16:A17 A18 B16:B17 B18 A20 A21 A22 A23 B20 B21 B22 B23">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C14 C19:C1048576 C5 C6:C7 C8:C9 C10:C11 C12:C13 C15 C16:C17 C18">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C14 C24:C1048576 C5 C6:C7 C8:C9 C10:C11 C12:C13 C15 C16:C17 C18 C19 C20 C21 C22 C23">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D14 D19:D1048576 D5 D6:D7 D8:D9 D10:D11 D12:D13 D15 D16:D17 D18">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D4 D14 D24:D1048576 D5 D6:D7 D8:D9 D10:D11 D12:D13 D15 D16:D17 D18 D19 D20 D21 D22 D23">
       <formula1>0</formula1>
       <formula2>10000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E4 E14 E19:E1048576 G1:G4 G14 G19:G1048576 E5 G5 E6:E7 E8:E9 E10:E11 E12:E13 G6:G7 G8:G9 G10:G11 G12:G13 E15 G15 E16:E17 E18 G16:G17 G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E4 E14 E24:E1048576 G1:G4 G14 G24:G1048576 E5 G5 E6:E7 E8:E9 E10:E11 E12:E13 G6:G7 G8:G9 G10:G11 G12:G13 E15 G15 E16:E17 E18 G16:G17 G18 E19 G19 E20 E21 E22 E23 G20 G21 G22 G23">
       <formula1>"Physical, Magic, heal"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F4 F14 F19:F1048576 H1:H4 H14 H19:H1048576 K1:K4 K14 K19:K1048576 F5 H5 K5 F6:F7 F8:F9 F10:F11 F12:F13 H6:H7 H8:H9 H10:H11 H12:H13 K6:K7 K8:K9 K10:K11 K12:K13 F15 H15 K15 F16:F17 F18 H16:H17 H18 K16:K17 K18">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F4 F14 F24:F1048576 H1:H4 H14 H24:H1048576 K1:K4 K14 K24:K1048576 F5 H5 K5 F6:F7 F8:F9 F10:F11 F12:F13 H6:H7 H8:H9 H10:H11 H12:H13 K6:K7 K8:K9 K10:K11 K12:K13 F15 H15 K15 F16:F17 F18 H16:H17 H18 K16:K17 K18 F19 H19 K19 F20 F21 F22 F23 H20 H21 H22 H23 K20 K21 K22 K23">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4 I14 I19:I1048576 I5 I6:I7 I8:I9 I10:I11 I12:I13 I15 I16:I17 I18">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4 I14 I24:I1048576 I5 I6:I7 I8:I9 I10:I11 I12:I13 I15 I16:I17 I18 I19 I20 I21 I22 I23">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J4 J14 J19:J1048576 L1:L4 L14 L19:L1048576 J5 L5 J6:J7 J8:J9 J10:J11 J12:J13 L6:L7 L8:L9 L10:L11 L12:L13 J15 L15 J16:J17 J18 L16:L17 L18">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J4 J14 J24:J1048576 L1:L4 L14 L24:L1048576 J5 L5 J6:J7 J8:J9 J10:J11 J12:J13 L6:L7 L8:L9 L10:L11 L12:L13 J15 L15 J16:J17 J18 L16:L17 L18 J19 L19 J20 J21 J22 J23 L20 L21 L22 L23">
       <formula1>0</formula1>
       <formula2>3600</formula2>
     </dataValidation>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillLevelDetailSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>skillName</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>BasicStatTypesStr</t>
+  </si>
+  <si>
+    <t>coolTimeTick</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="B1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1291,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>49</v>
@@ -1406,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="12">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>31</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>31</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="N5" s="11" t="s">
         <v>31</v>
@@ -1586,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>31</v>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>31</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>31</v>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="11">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>31</v>
@@ -1822,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>31</v>
@@ -1881,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>31</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>0.099999999999998</v>
+        <v>0</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>31</v>
@@ -2058,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>31</v>
@@ -2117,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>31</v>
@@ -2176,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>31</v>
@@ -2235,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>31</v>
@@ -2350,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="12">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M19" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>64</v>
@@ -2409,10 +2412,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="12">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="M20" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>64</v>
@@ -2468,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="12">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M21" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>64</v>
@@ -2527,10 +2530,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="12">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="M22" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>64</v>
@@ -2586,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="M23" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>64</v>
@@ -2612,7 +2615,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A14 A19 A24:A1048576 B1:B4 B14 B19 B24:B1048576 A5 B5 A6:A7 A8:A9 A10:A11 A12:A13 B6:B7 B8:B9 B10:B11 B12:B13 A15 B15 A16:A17 A18 B16:B17 B18 A20 A21 A22 A23 B20 B21 B22 B23">
       <formula1>1</formula1>
     </dataValidation>
@@ -2639,6 +2642,14 @@
       <formula1>0</formula1>
       <formula2>3600</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+      <formula1>"None,WeaponApixType.CriticalDMG,WeaponApixType.CriticalChance,WeaponApixType.ATK,WeaponApixType.MATK,WeaponApixType.AttackSpeed,WeaponApixType.CastingSpeed,
+WeaponApixType.MaxHP,WeaponApixType.Accuracy,ArmorApixType.MaxMana,ArmorApixType.ManaRegen,ArmorApixType.MaxHp,ArmorApixType.HpRegen,ArmorApixType.MoveSpeed,ArmorApixType.Deff,ArmorApixType.Evasion,ArmorApixType.MagicDeff,BasicStatTypes.Str,BasicStatTypes.AGI,BasicStatTypes.Vit,BasicStatTypes.Int,BasicStatTypes.Dex,BasicStatTypes.Luk"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1">
+      <formula1>None,WeaponApixType.CriticalDMG,WeaponApixType.CriticalChance,WeaponApixType.ATK,WeaponApixType.MATK,WeaponApixType.AttackSpeed,WeaponApixType.CastingSpeed,
+WeaponApixType.MaxHP,WeaponApixType.Accuracy,ArmorApixType.MaxMana,ArmorApixType.ManaRegen,ArmorApixType.MaxHp,ArmorApixType.HpRegen,ArmorApixType.MoveSpeed,ArmorApixType.Deff,ArmorApixType.Evasion,ArmorApixType.MagicDeff,BasicStatTypes.Str,BasicStatTypes.AGI,BasicStatTypes.Vit,BasicStatTypes.Int,BasicStatTypes.Dex,BasicStatTypes.Luk</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
